--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N2">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O2">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P2">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q2">
-        <v>217.668471838106</v>
+        <v>1.443895140156</v>
       </c>
       <c r="R2">
-        <v>1959.016246542954</v>
+        <v>12.995056261404</v>
       </c>
       <c r="S2">
-        <v>0.3783499266673376</v>
+        <v>0.03517575509725996</v>
       </c>
       <c r="T2">
-        <v>0.3783499266673375</v>
+        <v>0.03517575509725997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P3">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q3">
-        <v>17.037152321918</v>
+        <v>11.873114755548</v>
       </c>
       <c r="R3">
-        <v>153.334370897262</v>
+        <v>106.858032799932</v>
       </c>
       <c r="S3">
-        <v>0.02961386771903394</v>
+        <v>0.2892493819445208</v>
       </c>
       <c r="T3">
-        <v>0.02961386771903394</v>
+        <v>0.2892493819445208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>182.932819</v>
       </c>
       <c r="I4">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J4">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N4">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O4">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P4">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q4">
-        <v>195.8449084445585</v>
+        <v>1.864166729085111</v>
       </c>
       <c r="R4">
-        <v>1762.604176001026</v>
+        <v>16.777500561766</v>
       </c>
       <c r="S4">
-        <v>0.3404163502525138</v>
+        <v>0.04541428979092859</v>
       </c>
       <c r="T4">
-        <v>0.3404163502525137</v>
+        <v>0.0454142897909286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>0.754162</v>
       </c>
       <c r="O5">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P5">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q5">
         <v>15.32899784918644</v>
@@ -756,10 +756,10 @@
         <v>137.960980642678</v>
       </c>
       <c r="S5">
-        <v>0.02664476468800265</v>
+        <v>0.373440604676563</v>
       </c>
       <c r="T5">
-        <v>0.02664476468800264</v>
+        <v>0.373440604676563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>112.121186</v>
       </c>
       <c r="I6">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J6">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N6">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O6">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P6">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q6">
-        <v>120.0351228768049</v>
+        <v>1.142564716978222</v>
       </c>
       <c r="R6">
-        <v>1080.316105891244</v>
+        <v>10.283082452804</v>
       </c>
       <c r="S6">
-        <v>0.2086442724315272</v>
+        <v>0.02783483062548009</v>
       </c>
       <c r="T6">
-        <v>0.2086442724315271</v>
+        <v>0.02783483062548009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>112.121186</v>
       </c>
       <c r="I7">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J7">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.754162</v>
       </c>
       <c r="O7">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P7">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q7">
         <v>9.39528198623689</v>
@@ -880,10 +880,10 @@
         <v>84.557537876132</v>
       </c>
       <c r="S7">
-        <v>0.01633081824158506</v>
+        <v>0.2288851378652477</v>
       </c>
       <c r="T7">
-        <v>0.01633081824158505</v>
+        <v>0.2288851378652476</v>
       </c>
     </row>
   </sheetData>
